--- a/BWCFiles/PropertyFile/RemarksHeadingMapper.xlsx
+++ b/BWCFiles/PropertyFile/RemarksHeadingMapper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giris\Codes\BankWiseConsolidation-main\BankWiseConsolidation-main - Copy\BWCFiles\PropertyFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giris\Codes\BankWiseConsolidation-main\BSC Tool\BWCFiles\PropertyFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08F516D-DBDD-4DF9-B05F-5FA1A1FAD93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CA0707-E9E3-44C4-8F3B-424A7212CB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{6552E762-3880-4D85-B194-A8869E2CC236}"/>
   </bookViews>
@@ -557,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F547BD-9F1A-449C-8BDB-8A3C350B97DC}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -595,7 +595,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -886,11 +886,85 @@
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C42" s="6"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
